--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1993272.599257532</v>
+        <v>-1996187.553847507</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.81593740208879</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>36.9936132657555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.8919914206772</v>
       </c>
       <c r="H5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="S5" t="n">
-        <v>18.69198314380025</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
     </row>
     <row r="6">
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>32.58397456447745</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>32.58397456447742</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.17265651123943</v>
+        <v>33.17265651123944</v>
       </c>
       <c r="R7" t="n">
-        <v>36.4049313189935</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.40493131899346</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05408749858788951</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>157.1187419577135</v>
+        <v>13.25317302789425</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.12316271950939</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>122.7964937088976</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>138.390187916354</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.07159191921399</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="V9" t="n">
+        <v>106.31859599714</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>157.1187419577135</v>
-      </c>
-      <c r="W9" t="n">
-        <v>157.1187419577135</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>157.1187419577135</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.3554773469166</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.1187419577135</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361789</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.17783915532064</v>
+        <v>9.177839155320669</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.1187419577135</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>140.9100426958156</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206814</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>267.7301114206891</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2389816846967</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.14647130913946</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.9187566128687</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605503</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516574</v>
+        <v>19.1186165226367</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9175323657876</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
         <v>250.9345864167828</v>
@@ -1670,10 +1670,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.6861009032421</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442975</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>42.5332795366734</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>144.8991127896656</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452895</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894974</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2147,7 +2147,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464138</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.823760294358</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707172</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453007</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368231</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295173</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545723</v>
@@ -2476,7 +2476,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659984</v>
@@ -2485,16 +2485,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2539,7 +2539,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y25" t="n">
         <v>186.9744509998808</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545723</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295161</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651989</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262549</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G31" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452995</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424875</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262537</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3275,7 +3275,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894952</v>
       </c>
       <c r="G35" t="n">
         <v>378.5542040247497</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545723</v>
@@ -3433,16 +3433,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221693</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894986</v>
+        <v>375.2658433894965</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295165</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
         <v>317.630766365199</v>
@@ -3569,7 +3569,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139452999</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
@@ -4034,13 +4034,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4135,7 +4135,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659984</v>
@@ -4144,16 +4144,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4198,7 +4198,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.0936620086783</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="C5" t="n">
-        <v>129.0936620086783</v>
+        <v>35.87259468194471</v>
       </c>
       <c r="D5" t="n">
-        <v>129.0936620086783</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="E5" t="n">
-        <v>129.0936620086783</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="F5" t="n">
-        <v>91.72637588165256</v>
+        <v>16.99180362760104</v>
       </c>
       <c r="G5" t="n">
-        <v>77.69406131531196</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H5" t="n">
-        <v>40.3267751882862</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I5" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95948906126044</v>
+        <v>20.90866910184079</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58316619435838</v>
+        <v>20.90866910184079</v>
       </c>
       <c r="L5" t="n">
-        <v>45.11964052820457</v>
+        <v>20.90866910184079</v>
       </c>
       <c r="M5" t="n">
-        <v>81.74331766130251</v>
+        <v>38.10342166372814</v>
       </c>
       <c r="N5" t="n">
-        <v>103.8301076750345</v>
+        <v>74.72709879682606</v>
       </c>
       <c r="O5" t="n">
-        <v>111.3507759299241</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P5" t="n">
-        <v>147.974453063022</v>
+        <v>111.350775929924</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R5" t="n">
-        <v>147.974453063022</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="S5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="T5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="U5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="V5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="W5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="X5" t="n">
-        <v>129.0936620086783</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.0936620086783</v>
+        <v>35.87259468194471</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.2398808089705</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="C6" t="n">
-        <v>73.2398808089705</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="D6" t="n">
-        <v>73.2398808089705</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="E6" t="n">
-        <v>73.2398808089705</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="F6" t="n">
-        <v>35.87259468194474</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="G6" t="n">
-        <v>2.95948906126044</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="H6" t="n">
-        <v>2.95948906126044</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="I6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K6" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L6" t="n">
-        <v>28.04275820728451</v>
+        <v>28.04275820728447</v>
       </c>
       <c r="M6" t="n">
-        <v>64.66643534038245</v>
+        <v>64.66643534038239</v>
       </c>
       <c r="N6" t="n">
-        <v>101.2901124734804</v>
+        <v>101.2901124734803</v>
       </c>
       <c r="O6" t="n">
-        <v>137.9137896065784</v>
+        <v>137.9137896065783</v>
       </c>
       <c r="P6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R6" t="n">
-        <v>110.6071669359962</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="T6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="U6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="V6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="W6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="X6" t="n">
-        <v>110.6071669359962</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="Y6" t="n">
-        <v>73.2398808089705</v>
+        <v>115.0613474423376</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="D7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="E7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="F7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="G7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="H7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95948906126044</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K7" t="n">
-        <v>2.95948906126044</v>
+        <v>38.10342166372814</v>
       </c>
       <c r="L7" t="n">
-        <v>39.58316619435838</v>
+        <v>74.72709879682606</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58316619435838</v>
+        <v>74.72709879682606</v>
       </c>
       <c r="N7" t="n">
-        <v>76.20684332745633</v>
+        <v>74.72709879682606</v>
       </c>
       <c r="O7" t="n">
-        <v>111.3507759299241</v>
+        <v>111.350775929924</v>
       </c>
       <c r="P7" t="n">
-        <v>147.974453063022</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.4667192132852</v>
+        <v>114.4667192132851</v>
       </c>
       <c r="R7" t="n">
-        <v>77.69406131531196</v>
+        <v>77.09943308625935</v>
       </c>
       <c r="S7" t="n">
-        <v>77.69406131531196</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="T7" t="n">
-        <v>77.69406131531196</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="U7" t="n">
-        <v>77.69406131531196</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="V7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="W7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="X7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.3267751882862</v>
+        <v>40.32677518828616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>469.7145340366101</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="C8" t="n">
-        <v>469.7145340366101</v>
+        <v>324.3957775418432</v>
       </c>
       <c r="D8" t="n">
-        <v>311.0087340793237</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="E8" t="n">
-        <v>311.0087340793237</v>
+        <v>165.6899775845569</v>
       </c>
       <c r="F8" t="n">
-        <v>304.0632333301203</v>
+        <v>158.7444768353534</v>
       </c>
       <c r="G8" t="n">
         <v>145.357433372834</v>
@@ -4802,52 +4802,52 @@
         <v>12.56949935661708</v>
       </c>
       <c r="J8" t="n">
-        <v>61.348353680367</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="K8" t="n">
-        <v>101.5645669032554</v>
+        <v>52.78571257950544</v>
       </c>
       <c r="L8" t="n">
-        <v>188.3580974250191</v>
+        <v>139.5792431012691</v>
       </c>
       <c r="M8" t="n">
-        <v>316.6020608975391</v>
+        <v>267.823206573789</v>
       </c>
       <c r="N8" t="n">
-        <v>451.5349541528134</v>
+        <v>402.7560998290631</v>
       </c>
       <c r="O8" t="n">
-        <v>565.612997759942</v>
+        <v>516.8341434361917</v>
       </c>
       <c r="P8" t="n">
-        <v>628.4749678308539</v>
+        <v>579.6961135071034</v>
       </c>
       <c r="Q8" t="n">
         <v>628.4749678308539</v>
       </c>
       <c r="R8" t="n">
-        <v>628.4749678308539</v>
+        <v>607.1384398313494</v>
       </c>
       <c r="S8" t="n">
-        <v>628.4749678308539</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="T8" t="n">
-        <v>628.4749678308539</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="U8" t="n">
-        <v>628.4749678308539</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="V8" t="n">
-        <v>469.7691678735675</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="W8" t="n">
-        <v>469.7691678735675</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="X8" t="n">
-        <v>469.7691678735675</v>
+        <v>448.4326398740631</v>
       </c>
       <c r="Y8" t="n">
-        <v>469.7691678735675</v>
+        <v>324.3957775418432</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.3575679589949</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3575679589949</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="D9" t="n">
-        <v>152.3575679589949</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="E9" t="n">
         <v>12.56949935661708</v>
@@ -4884,19 +4884,19 @@
         <v>12.56949935661708</v>
       </c>
       <c r="K9" t="n">
-        <v>51.41474465792135</v>
+        <v>51.41474465792123</v>
       </c>
       <c r="L9" t="n">
-        <v>149.9695119216958</v>
+        <v>149.9695119216956</v>
       </c>
       <c r="M9" t="n">
-        <v>284.3351449627284</v>
+        <v>284.3351449627282</v>
       </c>
       <c r="N9" t="n">
-        <v>436.665681408685</v>
+        <v>436.6656814086849</v>
       </c>
       <c r="O9" t="n">
-        <v>553.7985668721252</v>
+        <v>553.7985668721253</v>
       </c>
       <c r="P9" t="n">
         <v>628.4749678308538</v>
@@ -4905,28 +4905,28 @@
         <v>628.4749678308539</v>
       </c>
       <c r="R9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="S9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="T9" t="n">
-        <v>628.4749678308539</v>
+        <v>596.0794204377084</v>
       </c>
       <c r="U9" t="n">
-        <v>628.4749678308539</v>
+        <v>437.3736204804221</v>
       </c>
       <c r="V9" t="n">
-        <v>469.7691678735675</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="W9" t="n">
-        <v>311.0633679162812</v>
+        <v>329.9810992711897</v>
       </c>
       <c r="X9" t="n">
-        <v>311.0633679162812</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="Y9" t="n">
-        <v>152.3575679589949</v>
+        <v>12.56949935661708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.3327451867487</v>
+        <v>476.8710467691001</v>
       </c>
       <c r="C10" t="n">
-        <v>191.3327451867487</v>
+        <v>318.1652468118137</v>
       </c>
       <c r="D10" t="n">
-        <v>41.21610577441293</v>
+        <v>318.1652468118137</v>
       </c>
       <c r="E10" t="n">
-        <v>41.21610577441293</v>
+        <v>318.1652468118137</v>
       </c>
       <c r="F10" t="n">
-        <v>41.21610577441293</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="G10" t="n">
-        <v>41.21610577441293</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="H10" t="n">
-        <v>41.21610577441293</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="I10" t="n">
-        <v>41.21610577441293</v>
+        <v>12.56949935661708</v>
       </c>
       <c r="J10" t="n">
         <v>12.56949935661708</v>
       </c>
       <c r="K10" t="n">
-        <v>96.26795780325854</v>
+        <v>96.26795780325853</v>
       </c>
       <c r="L10" t="n">
-        <v>209.9931087730137</v>
+        <v>251.8155123413949</v>
       </c>
       <c r="M10" t="n">
         <v>365.5406633111501</v>
@@ -4996,16 +4996,16 @@
         <v>619.2044232295199</v>
       </c>
       <c r="V10" t="n">
-        <v>460.4986232722335</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="W10" t="n">
-        <v>301.7928233149472</v>
+        <v>619.2044232295199</v>
       </c>
       <c r="X10" t="n">
-        <v>301.7928233149472</v>
+        <v>476.8710467691001</v>
       </c>
       <c r="Y10" t="n">
-        <v>301.7928233149472</v>
+        <v>476.8710467691001</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.48089954095</v>
+        <v>1548.766690866868</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.518382600539</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="D11" t="n">
-        <v>1375.25268399379</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="E11" t="n">
-        <v>989.4644313955456</v>
+        <v>794.0159213282122</v>
       </c>
       <c r="F11" t="n">
-        <v>578.4785266059381</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234161</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866152</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605072</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2489.080739605072</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,22 +5136,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.7578170212613</v>
+        <v>278.196479393871</v>
       </c>
       <c r="C13" t="n">
-        <v>477.7578170212613</v>
+        <v>278.196479393871</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X13" t="n">
-        <v>477.7578170212613</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y13" t="n">
-        <v>477.7578170212613</v>
+        <v>459.8449442241107</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>2313.039625065619</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1944.077108125207</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810107</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076836</v>
@@ -5282,13 +5282,13 @@
         <v>766.6831886951447</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233286</v>
@@ -5297,31 +5297,31 @@
         <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599077</v>
+        <v>4229.70871489456</v>
       </c>
       <c r="T14" t="n">
-        <v>4022.911477906362</v>
+        <v>4027.079618928109</v>
       </c>
       <c r="U14" t="n">
-        <v>3769.44219869749</v>
+        <v>3773.610339719237</v>
       </c>
       <c r="V14" t="n">
-        <v>3438.37931135392</v>
+        <v>3442.547452375667</v>
       </c>
       <c r="W14" t="n">
-        <v>3085.610656083805</v>
+        <v>3089.778797105552</v>
       </c>
       <c r="X14" t="n">
-        <v>2712.144897822725</v>
+        <v>3089.778797105552</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2699.639465129741</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K15" t="n">
-        <v>388.0214583249805</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="L15" t="n">
-        <v>841.8200879193078</v>
+        <v>326.5159252754119</v>
       </c>
       <c r="M15" t="n">
-        <v>850.6694118551811</v>
+        <v>875.4343898857007</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812103</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.565859948187</v>
+        <v>1096.36890102849</v>
       </c>
       <c r="C16" t="n">
-        <v>632.6296770202802</v>
+        <v>927.4327181005835</v>
       </c>
       <c r="D16" t="n">
-        <v>482.5130376079444</v>
+        <v>777.3160786882478</v>
       </c>
       <c r="E16" t="n">
-        <v>482.5130376079444</v>
+        <v>629.4029851058547</v>
       </c>
       <c r="F16" t="n">
-        <v>482.5130376079444</v>
+        <v>482.5130376079443</v>
       </c>
       <c r="G16" t="n">
         <v>315.1533397258816</v>
@@ -5431,7 +5431,7 @@
         <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755866</v>
@@ -5458,28 +5458,28 @@
         <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685724</v>
+        <v>2093.462713255855</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.061021685724</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="U16" t="n">
-        <v>1976.098113062822</v>
+        <v>1873.162236091859</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.413624856935</v>
+        <v>1726.799495900277</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.996454819974</v>
+        <v>1726.799495900277</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.006903921957</v>
+        <v>1498.80994500226</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.2143247784268</v>
+        <v>1278.01736585873</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076857</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951468</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
@@ -5604,16 +5604,16 @@
         <v>1522.315654538066</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.315654538066</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2028.720609486316</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2487.272558016624</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897919</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5701,22 +5701,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511621</v>
@@ -5750,22 +5750,22 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612703</v>
@@ -5777,25 +5777,25 @@
         <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>973.3971899277775</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538066</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375539</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502122</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147774</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060907</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H22" t="n">
         <v>140.057470989793</v>
@@ -5908,52 +5908,52 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6078,10 +6078,10 @@
         <v>1522.315654538066</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.626315333739</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="O24" t="n">
-        <v>2322.031270281989</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
         <v>2322.031270281989</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P25" t="n">
         <v>2392.455631028688</v>
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6212,7 +6212,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6227,19 +6227,19 @@
         <v>337.4933016076835</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951446</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
@@ -6257,16 +6257,16 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6306,10 +6306,10 @@
         <v>84.98040897511621</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511621</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694435</v>
+        <v>841.8200879193078</v>
       </c>
       <c r="M27" t="n">
         <v>850.6694118551811</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
         <v>386.7245456315385</v>
@@ -6376,7 +6376,7 @@
         <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511621</v>
@@ -6403,10 +6403,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
         <v>2333.272818966195</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497862</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796663</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511618</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694434</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039795</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897929</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.58138725498</v>
@@ -6686,58 +6686,58 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501803</v>
@@ -6774,31 +6774,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551811</v>
+        <v>1453.289737812103</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812103</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6838,13 +6838,13 @@
         <v>735.8557341477715</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E34" t="n">
         <v>501.68499580398</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749443</v>
@@ -6853,10 +6853,10 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
         <v>459.5287020443611</v>
@@ -6877,7 +6877,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
         <v>2487.049233352542</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112804</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497861</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216579</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
         <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233285</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767225</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924544</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283562</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400159</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382057</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835858</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334501</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277774</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179732</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823383</v>
+        <v>2100.171002464468</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609044</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749442</v>
@@ -7090,16 +7090,16 @@
         <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511618</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,34 +7108,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511621</v>
@@ -7175,13 +7175,13 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889755</v>
@@ -7208,16 +7208,16 @@
         <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511621</v>
@@ -7333,49 +7333,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.04923335254</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233287</v>
@@ -7497,10 +7497,10 @@
         <v>973.3971899277775</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.315654538066</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375539</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F43" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,7 +7567,7 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443611</v>
@@ -7600,7 +7600,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7625,61 +7625,61 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076835</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951468</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
         <v>3496.71823738206</v>
@@ -7722,31 +7722,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448922</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551811</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,28 +7825,28 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.05514813903062</v>
+        <v>83.05514813903117</v>
       </c>
       <c r="K2" t="n">
-        <v>73.22710870301671</v>
+        <v>73.22710870301754</v>
       </c>
       <c r="L2" t="n">
-        <v>53.57019660276566</v>
+        <v>53.57019660276671</v>
       </c>
       <c r="M2" t="n">
-        <v>27.61783484079942</v>
+        <v>27.61783484080055</v>
       </c>
       <c r="N2" t="n">
-        <v>23.40430777820927</v>
+        <v>23.40430777821047</v>
       </c>
       <c r="O2" t="n">
-        <v>35.56998502294016</v>
+        <v>35.56998502294127</v>
       </c>
       <c r="P2" t="n">
-        <v>65.20765509351762</v>
+        <v>65.20765509351855</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.62757333243916</v>
+        <v>97.62757333243987</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>68.47500346606495</v>
+        <v>68.47500346606529</v>
       </c>
       <c r="K3" t="n">
-        <v>38.09042006267643</v>
+        <v>38.09042006267701</v>
       </c>
       <c r="L3" t="n">
-        <v>4.426824812797975</v>
+        <v>4.426824812798742</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.01368651428854</v>
+        <v>16.01368651428922</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.12815607245145</v>
+        <v>61.1281560724519</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>68.84383790571738</v>
+        <v>68.84383790571772</v>
       </c>
       <c r="L4" t="n">
-        <v>57.88853394862217</v>
+        <v>57.88853394862261</v>
       </c>
       <c r="M4" t="n">
-        <v>57.74414751362563</v>
+        <v>57.7441475136261</v>
       </c>
       <c r="N4" t="n">
-        <v>48.43422589577447</v>
+        <v>48.43422589577493</v>
       </c>
       <c r="O4" t="n">
-        <v>65.25511855533333</v>
+        <v>65.25511855533375</v>
       </c>
       <c r="P4" t="n">
-        <v>75.09154339162504</v>
+        <v>75.09154339162539</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>61.31059319219423</v>
+        <v>79.44107808166936</v>
       </c>
       <c r="K5" t="n">
-        <v>77.63127079784317</v>
+        <v>40.6376575320877</v>
       </c>
       <c r="L5" t="n">
-        <v>18.73249898584624</v>
+        <v>13.14010066882992</v>
       </c>
       <c r="M5" t="n">
-        <v>19.6251763345561</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.68372436299592</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>29.39697866485702</v>
       </c>
       <c r="P5" t="n">
-        <v>65.35955720536802</v>
+        <v>28.36594393961252</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.96098256656424</v>
+        <v>106.9545958323198</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.5240955048436</v>
+        <v>55.52409550484361</v>
       </c>
       <c r="K6" t="n">
-        <v>15.95525556667873</v>
+        <v>15.95525556667874</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.63021144112578</v>
+        <v>43.63021144112579</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>55.49199418801295</v>
+        <v>90.99091600868741</v>
       </c>
       <c r="L7" t="n">
-        <v>77.79638413461723</v>
+        <v>77.79638413461721</v>
       </c>
       <c r="M7" t="n">
-        <v>39.72960594677293</v>
+        <v>39.72960594677296</v>
       </c>
       <c r="N7" t="n">
-        <v>67.84164312865683</v>
+        <v>30.84802986290134</v>
       </c>
       <c r="O7" t="n">
-        <v>84.5103419313389</v>
+        <v>86.00503337641992</v>
       </c>
       <c r="P7" t="n">
-        <v>98.18586645234613</v>
+        <v>98.18586645234612</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.36325065172169</v>
+        <v>7.091680627731904</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529238566</v>
+        <v>50.24735287691428</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818569</v>
+        <v>23.2316826181857</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>113.0742024766678</v>
+        <v>155.3190545659417</v>
       </c>
       <c r="M10" t="n">
-        <v>151.9300289740655</v>
+        <v>109.6851768847916</v>
       </c>
       <c r="N10" t="n">
-        <v>144.1165101169799</v>
+        <v>144.11651011698</v>
       </c>
       <c r="O10" t="n">
-        <v>8.508606056834736</v>
+        <v>8.508606056834765</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.804778548830654e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>260.5271602238124</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.14819024477577</v>
+        <v>14.14819024477578</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>182.7108236629335</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.0418188881337</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>61.80393721063888</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.6226581867047</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>56.7443458913608</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>42.79580459291225</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>86.37452877417292</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>139.1459343210224</v>
       </c>
       <c r="G11" t="n">
-        <v>198.6827439687567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>84.4690017090729</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.7908987761685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.81173225252904</v>
       </c>
       <c r="T14" t="n">
-        <v>68.6852726409987</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>243.6600291768057</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>107.2385305341624</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.200817223434569e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1281652.750557009</v>
+        <v>1281652.75055701</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1117999.67509569</v>
+        <v>1117999.675095689</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1255716.774111076</v>
+        <v>1255716.774111077</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96636.06652409515</v>
+        <v>96636.06652409519</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,16 +26320,16 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>85249.27474273017</v>
+        <v>85249.27474273015</v>
       </c>
       <c r="F2" t="n">
-        <v>95842.89774391384</v>
+        <v>95842.89774391378</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="H2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330355</v>
@@ -26338,16 +26338,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276743.5187596375</v>
+        <v>276743.518759636</v>
       </c>
       <c r="C3" t="n">
-        <v>69983.72346881157</v>
+        <v>69983.72346881301</v>
       </c>
       <c r="D3" t="n">
-        <v>173403.8562159924</v>
+        <v>173403.8562159923</v>
       </c>
       <c r="E3" t="n">
-        <v>667257.5729881102</v>
+        <v>667257.5729881101</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963075</v>
+        <v>215052.1096963078</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177118</v>
+        <v>25288.1618817713</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-10</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9520.972258980844</v>
+        <v>9520.972258980953</v>
       </c>
       <c r="L3" t="n">
-        <v>55690.75082754756</v>
+        <v>55690.75082754748</v>
       </c>
       <c r="M3" t="n">
-        <v>168033.949321243</v>
+        <v>168033.9493212428</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578626</v>
+        <v>56542.29359578637</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331427.1547683805</v>
+        <v>331427.1547683812</v>
       </c>
       <c r="C4" t="n">
         <v>338970.8325859631</v>
@@ -26424,40 +26424,40 @@
         <v>286646.5724168832</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.3470671039</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10499.8219988023</v>
       </c>
       <c r="G4" t="n">
-        <v>41569.70708102232</v>
+        <v>41569.70708102242</v>
       </c>
       <c r="H4" t="n">
+        <v>41569.70708102241</v>
+      </c>
+      <c r="I4" t="n">
         <v>41569.70708102245</v>
       </c>
-      <c r="I4" t="n">
-        <v>41569.70708102239</v>
-      </c>
       <c r="J4" t="n">
-        <v>41569.70708102245</v>
+        <v>41569.70708102242</v>
       </c>
       <c r="K4" t="n">
-        <v>41569.70708102252</v>
+        <v>41569.7070810224</v>
       </c>
       <c r="L4" t="n">
         <v>41569.70708102244</v>
       </c>
       <c r="M4" t="n">
-        <v>41569.70708102241</v>
+        <v>41569.70708102249</v>
       </c>
       <c r="N4" t="n">
-        <v>41569.70708102237</v>
+        <v>41569.70708102242</v>
       </c>
       <c r="O4" t="n">
         <v>41569.70708102242</v>
       </c>
       <c r="P4" t="n">
-        <v>41569.70708102237</v>
+        <v>41569.7070810224</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39888.42121034076</v>
+        <v>39888.42121034073</v>
       </c>
       <c r="C5" t="n">
-        <v>43526.93507027925</v>
+        <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
         <v>54294.69533421406</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215527</v>
@@ -26494,22 +26494,22 @@
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215525</v>
       </c>
-      <c r="L5" t="n">
-        <v>95106.43410215527</v>
-      </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215524</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551423.0282142636</v>
+        <v>-551542.9113084415</v>
       </c>
       <c r="C6" t="n">
-        <v>-349851.2698920185</v>
+        <v>-349851.2698920199</v>
       </c>
       <c r="D6" t="n">
         <v>-411714.9027340543</v>
       </c>
       <c r="E6" t="n">
-        <v>-666694.9858738773</v>
+        <v>-667042.6048036831</v>
       </c>
       <c r="F6" t="n">
-        <v>-222158.0299518029</v>
+        <v>-222293.7764215857</v>
       </c>
       <c r="G6" t="n">
-        <v>-59334.08183191318</v>
+        <v>-59334.08183191354</v>
       </c>
       <c r="H6" t="n">
         <v>-34045.91995014228</v>
       </c>
       <c r="I6" t="n">
-        <v>-34045.91995014206</v>
+        <v>-34045.91995014223</v>
       </c>
       <c r="J6" t="n">
-        <v>-34045.91995014226</v>
+        <v>-34045.91995014218</v>
       </c>
       <c r="K6" t="n">
-        <v>-43566.89220912304</v>
+        <v>-43566.8922091231</v>
       </c>
       <c r="L6" t="n">
-        <v>-89736.67077768981</v>
+        <v>-89736.67077768974</v>
       </c>
       <c r="M6" t="n">
         <v>-202079.8692713851</v>
       </c>
       <c r="N6" t="n">
-        <v>-90588.21354592833</v>
+        <v>-90588.21354592864</v>
       </c>
       <c r="O6" t="n">
-        <v>-34045.91995014228</v>
+        <v>-34045.91995014239</v>
       </c>
       <c r="P6" t="n">
-        <v>-34045.91995014211</v>
+        <v>-34045.91995014218</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221401</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.61020235221399</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221401</v>
-      </c>
       <c r="K2" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221399</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.1936335018701</v>
+        <v>287.1936335018684</v>
       </c>
       <c r="C3" t="n">
         <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011506</v>
+        <v>509.8291662011505</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
         <v>157.1187419577135</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26814,13 +26814,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.1936335018701</v>
+        <v>287.1936335018684</v>
       </c>
       <c r="C3" t="n">
-        <v>63.72945749452038</v>
+        <v>63.72945749452197</v>
       </c>
       <c r="D3" t="n">
-        <v>158.9060752047602</v>
+        <v>158.9060752047601</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921476</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268242</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
         <v>120.125128691958</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2827134445791</v>
+        <v>674.2827134445789</v>
       </c>
       <c r="F4" t="n">
         <v>230.8536567866599</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.99361326575504</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L4" t="n">
-        <v>120.1251286919587</v>
+        <v>120.125128691958</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445789</v>
+        <v>674.2827134445785</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866599</v>
+        <v>230.8536567866604</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L4" t="n">
         <v>120.125128691958</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445791</v>
+        <v>674.2827134445789</v>
       </c>
       <c r="N4" t="n">
         <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>146.3488855178991</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>327.6507948832002</v>
+        <v>327.6507948832003</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9652059298799</v>
+        <v>165.9652059298801</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.34478796944376</v>
+        <v>77.34478796944418</v>
       </c>
       <c r="S2" t="n">
-        <v>182.7108236629333</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.0418188881336</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2532891262078</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27476,7 +27476,7 @@
         <v>106.2694029065803</v>
       </c>
       <c r="I3" t="n">
-        <v>68.12804772887092</v>
+        <v>68.12804772887105</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.80393721063866</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>160.2089726332678</v>
+        <v>160.2089726332679</v>
       </c>
       <c r="T3" t="n">
         <v>197.6748140798384</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.4730891996849</v>
       </c>
       <c r="H4" t="n">
-        <v>157.6226581867047</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>139.8761054252224</v>
+        <v>139.8761054252225</v>
       </c>
       <c r="J4" t="n">
-        <v>56.7443458913606</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.79580459291201</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>154.0071666017556</v>
+        <v>67.63263782758278</v>
       </c>
       <c r="S4" t="n">
-        <v>214.9911849972495</v>
+        <v>214.9911849972496</v>
       </c>
       <c r="T4" t="n">
         <v>225.7327860226114</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>342.8671042185941</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>369.882432475956</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>288.0333854101452</v>
+        <v>325.0269986759007</v>
       </c>
       <c r="I5" t="n">
-        <v>119.0944874980641</v>
+        <v>156.0881007638196</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.25133858516169</v>
+        <v>24.25772531940623</v>
       </c>
       <c r="S5" t="n">
-        <v>158.1807098149868</v>
+        <v>139.8790796930316</v>
       </c>
       <c r="T5" t="n">
         <v>216.9203085356421</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2443253902981</v>
       </c>
     </row>
     <row r="6">
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>110.4514522988833</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>108.0755991276284</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>104.0047268935711</v>
+        <v>136.5887014580486</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9455136103262</v>
+        <v>67.95190034457069</v>
       </c>
       <c r="I6" t="n">
-        <v>63.40846054649371</v>
+        <v>26.41484728073824</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16.29943526287909</v>
+        <v>53.2930485286346</v>
       </c>
       <c r="S6" t="n">
-        <v>157.6628004399726</v>
+        <v>125.0788258754952</v>
       </c>
       <c r="T6" t="n">
         <v>197.1222917077869</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.6890825115489</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>136.4200882876507</v>
       </c>
       <c r="J7" t="n">
-        <v>48.61936243341166</v>
+        <v>48.61936243341167</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4349254996818</v>
+        <v>111.8462435529198</v>
       </c>
       <c r="S7" t="n">
-        <v>212.9884084395939</v>
+        <v>176.5834771206004</v>
       </c>
       <c r="T7" t="n">
         <v>225.2417557763421</v>
@@ -27831,7 +27831,7 @@
         <v>286.284512331147</v>
       </c>
       <c r="V7" t="n">
-        <v>215.1440300580725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.6797541648927</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>256.1344310701808</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>318.4846998108122</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950937</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>162.3156188332455</v>
+        <v>5.196876875532013</v>
       </c>
       <c r="T8" t="n">
         <v>214.1238810212347</v>
@@ -27910,7 +27910,7 @@
         <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
-        <v>170.6335165124214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>263.441444947156</v>
       </c>
     </row>
     <row r="9">
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>19.25489253904695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783929</v>
+        <v>51.6404162978393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921397</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
@@ -27986,16 +27986,16 @@
         <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8692364442482</v>
+        <v>68.75049448653476</v>
       </c>
       <c r="V9" t="n">
-        <v>75.6818451917118</v>
+        <v>126.4819911522852</v>
       </c>
       <c r="W9" t="n">
-        <v>94.57624120320614</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>48.65424324576401</v>
       </c>
       <c r="Y9" t="n">
         <v>48.56395381959089</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.47650283502074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>10.12807914091437</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0716152882599</v>
+        <v>9.95287333054651</v>
       </c>
       <c r="H10" t="n">
         <v>154.0531901378539</v>
@@ -28032,7 +28032,7 @@
         <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.36014035361791</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>95.01890136611453</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>129.4042563788775</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>84.79961269322155</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.582867840149799e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605503</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605503</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605503</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221289</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605503</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605503</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221413</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>31.61020235221397</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221537</v>
       </c>
       <c r="Y32" t="n">
         <v>31.61020235221397</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221628</v>
       </c>
       <c r="G35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605503</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221281</v>
+        <v>31.61020235221491</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605503</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221008</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221408</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605503</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.154547270359276</v>
+        <v>1.154547270359269</v>
       </c>
       <c r="H2" t="n">
-        <v>11.82400723256694</v>
+        <v>11.82400723256687</v>
       </c>
       <c r="I2" t="n">
-        <v>44.51068364052603</v>
+        <v>44.51068364052577</v>
       </c>
       <c r="J2" t="n">
-        <v>97.99075638765567</v>
+        <v>97.99075638765511</v>
       </c>
       <c r="K2" t="n">
-        <v>146.8627423419638</v>
+        <v>146.862742341963</v>
       </c>
       <c r="L2" t="n">
-        <v>182.1962183672216</v>
+        <v>182.1962183672205</v>
       </c>
       <c r="M2" t="n">
-        <v>202.7283983864733</v>
+        <v>202.7283983864722</v>
       </c>
       <c r="N2" t="n">
-        <v>206.0087558183816</v>
+        <v>206.0087558183805</v>
       </c>
       <c r="O2" t="n">
-        <v>194.5282263987466</v>
+        <v>194.5282263987455</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0253406617519</v>
+        <v>166.025340661751</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.6781165420103</v>
+        <v>124.6781165420096</v>
       </c>
       <c r="R2" t="n">
-        <v>72.52432997170592</v>
+        <v>72.5243299717055</v>
       </c>
       <c r="S2" t="n">
-        <v>26.30924592331202</v>
+        <v>26.30924592331187</v>
       </c>
       <c r="T2" t="n">
-        <v>5.054030675997732</v>
+        <v>5.054030675997703</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09236378162874205</v>
+        <v>0.09236378162874151</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6177372494191168</v>
+        <v>0.6177372494191132</v>
       </c>
       <c r="H3" t="n">
-        <v>5.966041329916208</v>
+        <v>5.966041329916173</v>
       </c>
       <c r="I3" t="n">
-        <v>21.26858512254416</v>
+        <v>21.26858512254403</v>
       </c>
       <c r="J3" t="n">
-        <v>58.36262320060174</v>
+        <v>58.3626232006014</v>
       </c>
       <c r="K3" t="n">
-        <v>99.75101891168256</v>
+        <v>99.75101891168198</v>
       </c>
       <c r="L3" t="n">
-        <v>134.1275549670762</v>
+        <v>134.1275549670754</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -31145,22 +31145,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>117.9607209000417</v>
+        <v>117.960720900041</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.85361801357007</v>
+        <v>78.85361801356962</v>
       </c>
       <c r="R3" t="n">
-        <v>38.35389694200448</v>
+        <v>38.35389694200425</v>
       </c>
       <c r="S3" t="n">
-        <v>11.47419847056999</v>
+        <v>11.47419847056992</v>
       </c>
       <c r="T3" t="n">
-        <v>2.489914614983193</v>
+        <v>2.489914614983179</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0406406085144156</v>
+        <v>0.04064060851441536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.517890158773864</v>
+        <v>0.517890158773861</v>
       </c>
       <c r="H4" t="n">
-        <v>4.604514320734904</v>
+        <v>4.604514320734877</v>
       </c>
       <c r="I4" t="n">
-        <v>15.57436950203584</v>
+        <v>15.57436950203575</v>
       </c>
       <c r="J4" t="n">
-        <v>36.61483422531218</v>
+        <v>36.61483422531197</v>
       </c>
       <c r="K4" t="n">
-        <v>60.169420264818</v>
+        <v>60.16942026481766</v>
       </c>
       <c r="L4" t="n">
-        <v>76.99614233261612</v>
+        <v>76.99614233261568</v>
       </c>
       <c r="M4" t="n">
-        <v>81.18163643397942</v>
+        <v>81.18163643397895</v>
       </c>
       <c r="N4" t="n">
-        <v>79.25131856945872</v>
+        <v>79.25131856945826</v>
       </c>
       <c r="O4" t="n">
-        <v>73.20141989650946</v>
+        <v>73.20141989650904</v>
       </c>
       <c r="P4" t="n">
-        <v>62.63646065752258</v>
+        <v>62.63646065752222</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.36623865878238</v>
+        <v>43.36623865878213</v>
       </c>
       <c r="R4" t="n">
-        <v>23.28622477541392</v>
+        <v>23.28622477541378</v>
       </c>
       <c r="S4" t="n">
-        <v>9.0254130397227</v>
+        <v>9.025413039722647</v>
       </c>
       <c r="T4" t="n">
-        <v>2.212803405670146</v>
+        <v>2.212803405670133</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02824855411493807</v>
+        <v>0.02824855411493791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31285,13 +31285,13 @@
         <v>54.38778880658631</v>
       </c>
       <c r="J5" t="n">
-        <v>119.7353113344921</v>
+        <v>119.735311334492</v>
       </c>
       <c r="K5" t="n">
-        <v>179.4521935128929</v>
+        <v>179.4521935128928</v>
       </c>
       <c r="L5" t="n">
-        <v>222.6263143011574</v>
+        <v>222.6263143011573</v>
       </c>
       <c r="M5" t="n">
         <v>247.7146701584721</v>
@@ -31309,13 +31309,13 @@
         <v>152.3447073078852</v>
       </c>
       <c r="R5" t="n">
-        <v>88.61777935598799</v>
+        <v>88.61777935598798</v>
       </c>
       <c r="S5" t="n">
         <v>32.14737662745829</v>
       </c>
       <c r="T5" t="n">
-        <v>6.175541028489241</v>
+        <v>6.17554102848924</v>
       </c>
       <c r="U5" t="n">
         <v>0.112859687556628</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7548157051620474</v>
+        <v>0.7548157051620473</v>
       </c>
       <c r="H6" t="n">
-        <v>7.289930626170301</v>
+        <v>7.2899306261703</v>
       </c>
       <c r="I6" t="n">
         <v>25.98817230492137</v>
       </c>
       <c r="J6" t="n">
-        <v>71.31353116182309</v>
+        <v>71.31353116182308</v>
       </c>
       <c r="K6" t="n">
-        <v>121.8861834076803</v>
+        <v>121.8861834076802</v>
       </c>
       <c r="L6" t="n">
         <v>163.8910152809086</v>
@@ -31382,13 +31382,13 @@
         <v>179.5898577101999</v>
       </c>
       <c r="P6" t="n">
-        <v>144.1366937339703</v>
+        <v>144.1366937339702</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.35156264489574</v>
+        <v>96.35156264489572</v>
       </c>
       <c r="R6" t="n">
-        <v>46.86478562400854</v>
+        <v>46.86478562400853</v>
       </c>
       <c r="S6" t="n">
         <v>14.02037066386521</v>
@@ -31397,7 +31397,7 @@
         <v>3.042436987034742</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04965892797118735</v>
+        <v>0.04965892797118734</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,34 +31434,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6328121313049663</v>
+        <v>0.6328121313049662</v>
       </c>
       <c r="H7" t="n">
-        <v>5.626275131056886</v>
+        <v>5.626275131056885</v>
       </c>
       <c r="I7" t="n">
-        <v>19.03038663960754</v>
+        <v>19.03038663960753</v>
       </c>
       <c r="J7" t="n">
-        <v>44.73981768326112</v>
+        <v>44.73981768326111</v>
       </c>
       <c r="K7" t="n">
         <v>73.52126398252243</v>
       </c>
       <c r="L7" t="n">
-        <v>94.08190541237656</v>
+        <v>94.08190541237654</v>
       </c>
       <c r="M7" t="n">
-        <v>99.19617800083212</v>
+        <v>99.19617800083209</v>
       </c>
       <c r="N7" t="n">
-        <v>96.83751460233186</v>
+        <v>96.83751460233185</v>
       </c>
       <c r="O7" t="n">
-        <v>89.44511834117836</v>
+        <v>89.44511834117834</v>
       </c>
       <c r="P7" t="n">
-        <v>76.53575086255698</v>
+        <v>76.53575086255697</v>
       </c>
       <c r="Q7" t="n">
         <v>52.98938674045495</v>
@@ -31473,10 +31473,10 @@
         <v>11.02818959737836</v>
       </c>
       <c r="T7" t="n">
-        <v>2.703833651939401</v>
+        <v>2.7038336519394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03451702534390729</v>
+        <v>0.03451702534390728</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240805</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
         <v>20.9901023049549</v>
       </c>
       <c r="I8" t="n">
-        <v>79.0158348943512</v>
+        <v>79.01583489435119</v>
       </c>
       <c r="J8" t="n">
         <v>173.9542238989544</v>
@@ -31528,13 +31528,13 @@
         <v>260.7122886438577</v>
       </c>
       <c r="L8" t="n">
-        <v>323.4366478202536</v>
+        <v>323.4366478202535</v>
       </c>
       <c r="M8" t="n">
         <v>359.8855902702222</v>
       </c>
       <c r="N8" t="n">
-        <v>365.7089153695952</v>
+        <v>365.7089153695951</v>
       </c>
       <c r="O8" t="n">
         <v>345.3285584995944</v>
@@ -31549,13 +31549,13 @@
         <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299989</v>
+        <v>46.70445075299988</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896628</v>
+        <v>8.971968542896626</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1639651589792644</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31607,34 +31607,34 @@
         <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432827</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796271</v>
+        <v>277.856895579627</v>
       </c>
       <c r="N9" t="n">
-        <v>285.210940816623</v>
+        <v>285.2109408166229</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671115</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P9" t="n">
-        <v>209.40511545345</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860216</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342916</v>
+        <v>68.08624223342915</v>
       </c>
       <c r="S9" t="n">
         <v>20.36911810247048</v>
       </c>
       <c r="T9" t="n">
-        <v>4.420122676781672</v>
+        <v>4.420122676781671</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657795</v>
+        <v>0.07214563672657794</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987961</v>
+        <v>0.9193640701987958</v>
       </c>
       <c r="H10" t="n">
-        <v>8.173982369585666</v>
+        <v>8.173982369585664</v>
       </c>
       <c r="I10" t="n">
         <v>27.64778494743289</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305488</v>
+        <v>64.99903976305487</v>
       </c>
       <c r="K10" t="n">
         <v>106.8133892467328</v>
@@ -31692,28 +31692,28 @@
         <v>144.1144969312531</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6877763059668</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>129.9479323950081</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
         <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.98420409637374</v>
+        <v>76.98420409637372</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821131</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S10" t="n">
         <v>16.02200838700992</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303946</v>
+        <v>3.928191936303945</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175257</v>
+        <v>0.05014713110175256</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,13 +32078,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247269</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155583</v>
+        <v>382.5296487700718</v>
       </c>
       <c r="M15" t="n">
-        <v>151.0727449683551</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
         <v>715.0339827160627</v>
@@ -32099,7 +32099,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32324,19 +32324,19 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>430.2478021574337</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>209.0440289417427</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32558,22 +32558,22 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>663.5877533333052</v>
+        <v>591.0665301174805</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578282</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877213</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32798,13 +32798,13 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N24" t="n">
-        <v>427.6151068264368</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>559.3781234260271</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892349</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691326</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155583</v>
       </c>
       <c r="M27" t="n">
-        <v>457.174815018723</v>
+        <v>151.0727449683551</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160627</v>
@@ -33260,31 +33260,31 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155583</v>
       </c>
       <c r="M30" t="n">
-        <v>457.1748150187231</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160627</v>
+        <v>663.5877533333052</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578282</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,19 +33497,19 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M33" t="n">
-        <v>696.5971294879668</v>
+        <v>626.8739812799228</v>
       </c>
       <c r="N33" t="n">
-        <v>715.0339827160627</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578282</v>
@@ -33521,7 +33521,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33734,10 +33734,10 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155583</v>
@@ -33746,13 +33746,13 @@
         <v>696.5971294879668</v>
       </c>
       <c r="N36" t="n">
-        <v>711.584314753687</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578282</v>
+        <v>602.670171575071</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,28 +33974,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L39" t="n">
-        <v>224.6083558013958</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879668</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160627</v>
+        <v>663.5877533333052</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578282</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34217,13 +34217,13 @@
         <v>596.9368339155583</v>
       </c>
       <c r="M42" t="n">
-        <v>696.5971294879668</v>
+        <v>645.1509001052091</v>
       </c>
       <c r="N42" t="n">
         <v>715.0339827160627</v>
       </c>
       <c r="O42" t="n">
-        <v>602.6701715750705</v>
+        <v>654.1164009578282</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171657</v>
       </c>
       <c r="L44" t="n">
         <v>810.8671910869749</v>
@@ -34384,7 +34384,7 @@
         <v>865.7509905565676</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829633</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
         <v>554.881956697201</v>
@@ -34445,13 +34445,13 @@
         <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463146</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879668</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877213</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.13048488947511</v>
       </c>
       <c r="K5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.59239831701635</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>36.9936132657555</v>
+        <v>17.36843693119934</v>
       </c>
       <c r="N5" t="n">
-        <v>22.30988890275961</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O5" t="n">
-        <v>7.596634600898511</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P5" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.33663550103441</v>
+        <v>25.33663550103438</v>
       </c>
       <c r="M6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O6" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P6" t="n">
-        <v>10.16228631964003</v>
+        <v>10.16228631964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>35.49892182067445</v>
       </c>
       <c r="L7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>36.9936132657555</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>35.49892182067448</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P7" t="n">
-        <v>36.9936132657555</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>49.27157002398982</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887718</v>
+        <v>40.62243759887713</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026636</v>
+        <v>87.6702328502663</v>
       </c>
       <c r="M8" t="n">
-        <v>129.5393570429495</v>
+        <v>129.5393570429494</v>
       </c>
       <c r="N8" t="n">
-        <v>136.2958517730043</v>
+        <v>136.2958517730042</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779077</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P8" t="n">
-        <v>63.49693946556749</v>
+        <v>63.49693946556744</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>49.27157002399037</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646895</v>
+        <v>39.23762151646892</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340848</v>
+        <v>99.55026996340843</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576087</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
         <v>153.8692287332896</v>
       </c>
       <c r="O9" t="n">
-        <v>118.3160459226671</v>
+        <v>118.316045922667</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911974</v>
+        <v>75.43070803911968</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.54389742084997</v>
+        <v>84.54389742084996</v>
       </c>
       <c r="L10" t="n">
+        <v>157.1187419577135</v>
+      </c>
+      <c r="M10" t="n">
         <v>114.8738898684396</v>
-      </c>
-      <c r="M10" t="n">
-        <v>157.1187419577135</v>
       </c>
       <c r="N10" t="n">
         <v>157.1187419577135</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356841</v>
+        <v>243.9752689901977</v>
       </c>
       <c r="M15" t="n">
-        <v>8.938711046336739</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
         <v>583.6922706327294</v>
@@ -35747,7 +35747,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116863</v>
       </c>
       <c r="K17" t="n">
         <v>433.525138472183</v>
@@ -35972,19 +35972,19 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2733947431035</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>69.06225485572118</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
@@ -36051,7 +36051,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36206,22 +36206,22 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>532.2460412499719</v>
+        <v>459.7248180341472</v>
       </c>
       <c r="O21" t="n">
         <v>511.5201565133838</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375738</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>332.5762668227514</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N24" t="n">
-        <v>296.2733947431035</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>416.7818789815827</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749046</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831111</v>
@@ -36516,16 +36516,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414966</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36595,7 +36595,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721842</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169876</v>
@@ -36610,7 +36610,7 @@
         <v>635.6527791348808</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q26" t="n">
         <v>332.5762668227514</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356841</v>
       </c>
       <c r="M27" t="n">
-        <v>315.0407810967047</v>
+        <v>8.938711046336739</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327294</v>
@@ -36753,16 +36753,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356841</v>
       </c>
       <c r="M30" t="n">
-        <v>315.0407810967048</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327294</v>
+        <v>532.2460412499719</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133838</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>575.1007761169876</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381588</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N32" t="n">
         <v>687.4322072151681</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664404</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659484</v>
+        <v>484.7399473579044</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327294</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>511.5201565133838</v>
@@ -37169,7 +37169,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356841</v>
@@ -37394,13 +37394,13 @@
         <v>554.4630955659484</v>
       </c>
       <c r="N36" t="n">
-        <v>580.2426026703537</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306265</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37622,28 +37622,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>86.05397602152159</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659484</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327294</v>
+        <v>532.2460412499719</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133838</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.653334055302</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>458.3824541356841</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659484</v>
+        <v>503.0168661831908</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327294</v>
       </c>
       <c r="O42" t="n">
-        <v>460.073927130626</v>
+        <v>511.5201565133838</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721851</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169876</v>
@@ -38032,7 +38032,7 @@
         <v>635.6527791348808</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276938</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
         <v>332.5762668227514</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.9601396664405</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659484</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133838</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375738</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
